--- a/public/template/TemplateAssetClass.xlsx
+++ b/public/template/TemplateAssetClass.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -34,12 +34,18 @@
   <si>
     <t>Obj Acc</t>
   </si>
+  <si>
+    <t>Mining Equipment</t>
+  </si>
+  <si>
+    <t>Major Equipm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +68,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +87,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -101,24 +119,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,7 +417,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,9 +439,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1607</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
